--- a/eda/treebank/total/column-1-analyze.xlsx
+++ b/eda/treebank/total/column-1-analyze.xlsx
@@ -52,13 +52,13 @@
     <t>FW</t>
   </si>
   <si>
-    <t>karaoke, nilông, fax, oxy, marketing, dioxin, tennis, ăcqui, heroin, virus</t>
+    <t>karaoke, nilông, fax, oxy, marketing, dioxin, ăcqui, tennis, bù loong, knock-out</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>ơi, Ôi, ạ, nhé, nhỉ, Thôi, à, À, ư, thay</t>
+    <t>ơi, Ôi, ạ, nhé, Thôi, nhỉ, à, ư, À, Vâng</t>
   </si>
   <si>
     <t>L</t>
@@ -88,7 +88,7 @@
     <t>Np</t>
   </si>
   <si>
-    <t>Mỹ, Hùng, Nam, Hà Nội, Việt, Chương, Hải, Tùng, VN, Tuấn</t>
+    <t>Mỹ, Hùng, Nam, Việt, Hà Nội, Chương, Hải, Tùng, VN, Tuấn</t>
   </si>
   <si>
     <t>Nu</t>
@@ -106,7 +106,7 @@
     <t>P</t>
   </si>
   <si>
-    <t>này, tôi, đó, mình, đây, chúng tôi, họ, Tôi, nào, ấy</t>
+    <t>này, tôi, đó, mình, đây, chúng tôi, họ, nào, Tôi, ấy</t>
   </si>
   <si>
     <t>R</t>
@@ -118,7 +118,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>cả, ngay, chính, đến, thôi, rồi, thật, nữa, lắm, mà</t>
+    <t>cả, ngay, chính, đến, thôi, rồi, thật, lắm, nữa, mà</t>
   </si>
   <si>
     <t>V</t>
@@ -130,7 +130,7 @@
     <t>Vy</t>
   </si>
   <si>
-    <t>PCCC, QLTT</t>
+    <t>QLTT, PCCC</t>
   </si>
   <si>
     <t>X</t>
@@ -142,7 +142,7 @@
     <t>Z</t>
   </si>
   <si>
-    <t>phó, trưởng, nguyên, Phó, tái, tổng, liên, bất, cựu, đa</t>
+    <t>phó, trưởng, nguyên, Phó, tổng, liên, tái, bất, cựu, đa</t>
   </si>
 </sst>
 </file>
